--- a/template.xlsx
+++ b/template.xlsx
@@ -58,7 +58,7 @@
     <t>GET</t>
   </si>
   <si>
-    <t>2019/06/22/first-glance-on-raspberry-pi/</t>
+    <t>/2019/06/22/first-glance-on-raspberry-pi/</t>
   </si>
   <si>
     <t>Headers</t>
@@ -118,10 +118,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -158,7 +158,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       <c r="C2" s="3">
         <v>200.0</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1"/>
